--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC22_Verify_PlaceOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC22_Verify_PlaceOrder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D25D05-7C67-4FBB-B3FE-0D3959EE0782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314940F-F1BE-4BC4-BD4F-AC539383DA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
   <si>
     <t>TestCase</t>
   </si>
@@ -785,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1441,33 +1441,21 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="B52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
@@ -1475,71 +1463,71 @@
         <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="5" t="s">
-        <v>12</v>
+      <c r="B56" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
       <c r="B57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
-      <c r="B58" s="6" t="s">
-        <v>9</v>
+      <c r="B58" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
-        <v>102</v>
+      <c r="B59" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>103</v>
@@ -1548,6 +1536,36 @@
         <v>108</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2046,12 +2064,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2248,6 +2260,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2258,15 +2276,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2285,6 +2294,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC22_Verify_PlaceOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC22_Verify_PlaceOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314940F-F1BE-4BC4-BD4F-AC539383DA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B531A-1240-47A8-819A-2BFDB660D978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="110">
   <si>
     <t>TestCase</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>LONGWAIT</t>
   </si>
 </sst>
 </file>
@@ -785,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1433,7 +1436,7 @@
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1450,12 +1453,18 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
@@ -1463,13 +1472,13 @@
         <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1478,51 +1487,51 @@
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
-      <c r="B58" s="5" t="s">
-        <v>12</v>
+      <c r="B58" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
@@ -1530,42 +1539,27 @@
         <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
-      <c r="B60" s="6" t="s">
-        <v>9</v>
+      <c r="B60" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2064,6 +2058,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2260,12 +2260,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2276,6 +2270,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2294,15 +2297,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>

--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC22_Verify_PlaceOrder.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC22_Verify_PlaceOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B531A-1240-47A8-819A-2BFDB660D978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF0BEA-5EC5-4B24-8479-769FB5E4613C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
   <si>
     <t>TestCase</t>
   </si>
@@ -190,9 +190,6 @@
     <t>CartImage</t>
   </si>
   <si>
-    <t>ViewFullCart</t>
-  </si>
-  <si>
     <t>CartOrderTotal</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
     <t>SWITCH_TO_DEFAULT</t>
   </si>
   <si>
-    <t>TC22_Verify_PlaceOrder</t>
-  </si>
-  <si>
     <t>VERIFY_TEXT_PRESENT</t>
   </si>
   <si>
@@ -358,7 +352,13 @@
     <t>CSS</t>
   </si>
   <si>
-    <t>LONGWAIT</t>
+    <t>TC20_Verify_BillingPage</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
+  </si>
+  <si>
+    <t>CLICK_PRE_ENTERTEXT</t>
   </si>
 </sst>
 </file>
@@ -788,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -822,7 +822,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -842,7 +842,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -864,7 +864,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -877,17 +877,21 @@
         <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -895,31 +899,27 @@
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
@@ -928,32 +928,36 @@
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
@@ -962,228 +966,224 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>108</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="6" t="s">
-        <v>73</v>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
-      <c r="B21" s="6" t="s">
-        <v>106</v>
+      <c r="B21" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="6" t="s">
-        <v>73</v>
+      <c r="B23" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="6" t="s">
-        <v>73</v>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
-        <v>74</v>
+      <c r="B26" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="6" t="s">
-        <v>73</v>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
@@ -1191,91 +1191,97 @@
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="6" t="s">
-        <v>12</v>
+      <c r="B37" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="6" t="s">
-        <v>73</v>
+      <c r="B38" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>89</v>
@@ -1283,27 +1289,27 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
-      <c r="B39" s="6" t="s">
-        <v>12</v>
+      <c r="B39" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
-      <c r="B40" s="6" t="s">
-        <v>73</v>
+      <c r="B40" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>90</v>
@@ -1311,27 +1317,27 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
-      <c r="B41" s="6" t="s">
-        <v>12</v>
+      <c r="B41" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
-      <c r="B42" s="6" t="s">
-        <v>73</v>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>91</v>
@@ -1339,27 +1345,27 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
-      <c r="B43" s="6" t="s">
-        <v>12</v>
+      <c r="B43" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
-      <c r="B44" s="6" t="s">
-        <v>73</v>
+      <c r="B44" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>92</v>
@@ -1367,36 +1373,26 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
-      <c r="B45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="B45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
-      <c r="B46" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
-      <c r="B47" s="6" t="s">
-        <v>100</v>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1404,63 +1400,75 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
-      <c r="B48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="6" t="s">
-        <v>50</v>
+      <c r="B49" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>94</v>
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>96</v>
@@ -1468,18 +1476,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
-      <c r="B54" s="6" t="s">
-        <v>9</v>
+      <c r="B54" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
@@ -1487,80 +1493,43 @@
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="5" t="s">
-        <v>12</v>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3"/>
-      <c r="B59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1794,7 +1763,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1802,7 +1771,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1810,7 +1779,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1818,7 +1787,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1826,7 +1795,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1834,15 +1803,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1850,7 +1819,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="3" t="b">
         <v>1</v>
@@ -1858,63 +1827,63 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3">
         <v>75230</v>
@@ -1922,15 +1891,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3">
         <v>8976553355</v>
@@ -1938,15 +1907,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3" t="b">
         <v>1</v>
@@ -1954,7 +1923,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="b">
         <v>1</v>
@@ -1962,7 +1931,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="b">
         <v>1</v>
@@ -1970,15 +1939,15 @@
     </row>
     <row r="49" spans="1:2" ht="13.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3">
         <v>12</v>
@@ -1986,7 +1955,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="3">
         <v>26</v>
@@ -1994,15 +1963,15 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3">
         <v>123</v>
@@ -2010,7 +1979,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="3" t="b">
         <v>1</v>
@@ -2018,7 +1987,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="3" t="b">
         <v>1</v>
@@ -2026,7 +1995,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" s="3" t="b">
         <v>1</v>
@@ -2034,15 +2003,15 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B58" s="3" t="b">
         <v>1</v>
@@ -2058,9 +2027,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2261,19 +2233,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2298,9 +2266,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>